--- a/dataset/dados_template.xlsx
+++ b/dataset/dados_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henrique-SCDATA\Desktop\scheduler-class-assistant\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henrique-SCDATA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BB1426-1F36-4E58-A357-44C6DA253795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0250BEAD-88F6-4F09-8000-ECF053047EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F560806E-DEAC-4C5F-BC53-F3C327D72FCF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F560806E-DEAC-4C5F-BC53-F3C327D72FCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>NUSP</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>SMA0353 - Cálculo I</t>
+  </si>
+  <si>
+    <t>Turma</t>
   </si>
 </sst>
 </file>
@@ -446,21 +449,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C4E88E-43DA-400E-BDA2-FE3FCC8BFDB1}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,27 +471,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10101010</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10101010</v>
       </c>
@@ -496,14 +505,20 @@
         <v>6</v>
       </c>
       <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
         <v>8</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G5" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
